--- a/etc_hw/210126_excel_commuteManagement/test_09_excel/template.xlsx
+++ b/etc_hw/210126_excel_commuteManagement/test_09_excel/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5C24E6-4E1B-45EA-A71F-B24B432EA95D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AD9F6A-E1A1-48BA-8AB7-63972BD69160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="33570" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="재고 목록" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>근무일자</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -79,19 +79,32 @@
     <t>사원번호</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>김 용 선</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인 사인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 근태 확인서</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +256,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -432,12 +459,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -597,6 +624,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -647,25 +689,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -676,29 +706,45 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -752,56 +798,293 @@
   </cellStyles>
   <dxfs count="36">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -825,22 +1108,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -861,38 +1128,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -913,22 +1148,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -949,22 +1168,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -985,22 +1188,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1021,23 +1208,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1058,22 +1228,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1094,23 +1248,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1131,22 +1268,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1167,22 +1288,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1208,38 +1313,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
         <name val="Malgun Gothic"/>
@@ -1254,6 +1327,58 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1337,23 +1462,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="재고_목록_표" displayName="재고_목록_표" ref="C2:N35" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="재고_목록_표" displayName="재고_목록_표" ref="C2:N35" headerRowDxfId="24" dataDxfId="0">
   <autoFilter ref="C2:N35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="사원번호" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="성명" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="구분" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="근무형태" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="근무유형" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="출근시각" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="사원번호" dataDxfId="12" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="성명" dataDxfId="11" totalsRowDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="구분" dataDxfId="10" totalsRowDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="근무형태" dataDxfId="9" totalsRowDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="근무유형" dataDxfId="8" totalsRowDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="출근시각" dataDxfId="7" totalsRowDxfId="18">
       <calculatedColumnFormula>재고_목록_표[[#This Row],[근무형태]]*재고_목록_표[[#This Row],[근무유형]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="퇴근시각" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="수정출근시간" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="수정퇴근시간" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="작일퇴근" totalsRowFunction="count" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{6CF9432D-2774-46B7-9C7D-F4049B41A1FC}" name="출근IP" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{C3797CA3-A2FC-4B3A-B223-883081F3DC62}" name="퇴근IP" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="퇴근시각" dataDxfId="6" totalsRowDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="수정출근시간" dataDxfId="5" totalsRowDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="수정퇴근시간" dataDxfId="4" totalsRowDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="작일퇴근" totalsRowFunction="count" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{6CF9432D-2774-46B7-9C7D-F4049B41A1FC}" name="출근IP" dataDxfId="2" totalsRowDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{C3797CA3-A2FC-4B3A-B223-883081F3DC62}" name="퇴근IP" dataDxfId="1" totalsRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="비즈니스 테이블" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1565,309 +1690,615 @@
   <dimension ref="B1:N36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="9" customWidth="1"/>
-    <col min="4" max="5" width="16.625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="10.625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.75" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.25" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="3"/>
+    <col min="1" max="1" width="2.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="16.625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="10.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.75" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.25" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="23.25" customHeight="1">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
+    <row r="1" spans="2:14" ht="56.25" customHeight="1">
+      <c r="B1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="50.1" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="24" customHeight="1">
-      <c r="B3" s="15"/>
-      <c r="F3" s="10"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="2:14" ht="24" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="F4" s="10"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="2:14" ht="24" customHeight="1">
-      <c r="B5" s="12"/>
-      <c r="F5" s="10"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1">
-      <c r="B6" s="13"/>
-      <c r="F6" s="10"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="2:14" ht="24" customHeight="1">
-      <c r="B7" s="12"/>
-      <c r="F7" s="10"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1">
-      <c r="B8" s="13"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1">
-      <c r="B9" s="12"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
-      <c r="B10" s="13"/>
-      <c r="F10" s="10"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="2:14" ht="24" customHeight="1">
-      <c r="B11" s="12"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
-      <c r="B12" s="13"/>
-      <c r="F12" s="10"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
-      <c r="B13" s="12"/>
-      <c r="F13" s="10"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="F14" s="10"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
-      <c r="B15" s="12"/>
-      <c r="F15" s="10"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
-      <c r="B16" s="13"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="2:9" ht="24" customHeight="1">
-      <c r="B17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="2:9" ht="24" customHeight="1">
-      <c r="B18" s="13"/>
-      <c r="F18" s="10"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="2:9" ht="24" customHeight="1">
-      <c r="B19" s="12"/>
-      <c r="F19" s="10"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="2:9" ht="24" customHeight="1">
-      <c r="B20" s="13"/>
-      <c r="F20" s="10"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" ht="24" customHeight="1">
-      <c r="B21" s="12"/>
-      <c r="F21" s="10"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="2:9" ht="24" customHeight="1">
-      <c r="B22" s="13"/>
-      <c r="F22" s="10"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="2:9" ht="24" customHeight="1">
-      <c r="B23" s="12"/>
-      <c r="F23" s="10"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="2:9" ht="24" customHeight="1">
-      <c r="B24" s="13"/>
-      <c r="F24" s="10"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="2:9" ht="24" customHeight="1">
-      <c r="B25" s="12"/>
-      <c r="F25" s="10"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="2:9" ht="24" customHeight="1">
-      <c r="B26" s="13"/>
-      <c r="F26" s="10"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="2:9" ht="24" customHeight="1">
-      <c r="B27" s="12"/>
-      <c r="F27" s="10"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="2:9" ht="24" customHeight="1">
-      <c r="B28" s="13"/>
-      <c r="F28" s="10"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="2:9" ht="24" customHeight="1">
-      <c r="B29" s="12"/>
-      <c r="F29" s="10"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="2:9" ht="24" customHeight="1">
-      <c r="B30" s="13"/>
-      <c r="F30" s="10"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="2:9" ht="24" customHeight="1">
-      <c r="B31" s="12"/>
-      <c r="F31" s="10"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="2:9" ht="24" customHeight="1">
-      <c r="B32" s="13"/>
-      <c r="F32" s="10"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="2:9" ht="24" customHeight="1">
-      <c r="B33" s="12"/>
-      <c r="F33" s="10"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" spans="2:9" ht="24" customHeight="1">
-      <c r="B34" s="13"/>
-      <c r="F34" s="10"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="2:9" ht="24" customHeight="1" thickBot="1">
-      <c r="B35" s="14"/>
-      <c r="F35" s="10"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="2:9" ht="24" customHeight="1" thickTop="1"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="2:14" ht="24" customHeight="1">
+      <c r="B17" s="15"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="2:14" ht="24" customHeight="1">
+      <c r="B18" s="15"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="2:14" ht="24" customHeight="1">
+      <c r="B19" s="15"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="2:14" ht="24" customHeight="1">
+      <c r="B20" s="15"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="2:14" ht="24" customHeight="1">
+      <c r="B21" s="15"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="2:14" ht="24" customHeight="1">
+      <c r="B22" s="15"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="2:14" ht="24" customHeight="1">
+      <c r="B23" s="15"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="2:14" ht="24" customHeight="1">
+      <c r="B24" s="15"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="2:14" ht="24" customHeight="1">
+      <c r="B25" s="15"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="2:14" ht="24" customHeight="1">
+      <c r="B26" s="15"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="2:14" ht="24" customHeight="1">
+      <c r="B27" s="15"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="2:14" ht="24" customHeight="1">
+      <c r="B28" s="15"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="2:14" ht="24" customHeight="1">
+      <c r="B29" s="15"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="2:14" ht="24" customHeight="1">
+      <c r="B30" s="15"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="2:14" ht="24" customHeight="1">
+      <c r="B31" s="15"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="2:14" ht="24" customHeight="1">
+      <c r="B32" s="15"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="2:14" ht="24" customHeight="1">
+      <c r="B33" s="15"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="2:14" ht="24" customHeight="1">
+      <c r="B34" s="15"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="2:14" ht="24" customHeight="1" thickBot="1">
+      <c r="B35" s="16"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="2:14" ht="24" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C3:L35">
-    <cfRule type="expression" dxfId="7" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>$L3="예"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="17">
+    <cfRule type="expression" dxfId="31" priority="17">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B42 B3:B33">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="30" priority="9">
       <formula>$L3="예"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="29" priority="10">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>$L34="예"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$L35="예"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1884,10 +2315,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L35" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"예"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="예를 선택하면 재주문할 항목을 강조 표시할 수 있습니다. 이렇게 하면 B열에 플래그가 지정되고 재고 목록 표의 해당 행이 강조 표시됩니다. 아니요를 선택하면 플래그와 강조 표시가 모두 지워집니다." sqref="L1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열에는 항목 재고 ID를 입력합니다." sqref="C2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="예를 선택하면 재주문할 항목을 강조 표시할 수 있습니다. 이렇게 하면 B열에 플래그가 지정되고 재고 목록 표의 해당 행이 강조 표시됩니다. 아니요를 선택하면 플래그와 강조 표시가 모두 지워집니다." sqref="L1" xr:uid="{8FA9110C-0D6F-419E-8FBC-7F641E7ADD1F}">
       <formula1>"예, 아니요"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열에는 항목 재고 ID를 입력합니다." sqref="C2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1899,18 +2330,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210801CA-89F3-4825-91A9-4A6E08DD6F78}">
-  <dimension ref="A1"/>
+  <dimension ref="G6:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="7:8">
+      <c r="G6" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="7:8">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2118,7 +2577,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2127,16 +2586,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2156,20 +2616,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>